--- a/2. objectcatalogus/IMKL2015 v 1.2.1.1io_object-attributen-ExtraRegels.xlsx
+++ b/2. objectcatalogus/IMKL2015 v 1.2.1.1io_object-attributen-ExtraRegels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\2. objectcatalogus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB65C936-53DC-49A3-BC39-41CE220DC887}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13A5648C-3774-4F62-988C-8D6145828D70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3165" yWindow="735" windowWidth="17175" windowHeight="7125" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3165" yWindow="735" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="19" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WION" sheetId="27" r:id="rId1"/>
@@ -1623,7 +1623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1865,6 +1865,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="447">
@@ -3006,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -10656,8 +10659,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10840,7 +10843,7 @@
       <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="95" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -10976,23 +10979,23 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="100" t="s">
         <v>165</v>
       </c>
     </row>

--- a/2. objectcatalogus/IMKL2015 v 1.2.1.1io_object-attributen-ExtraRegels.xlsx
+++ b/2. objectcatalogus/IMKL2015 v 1.2.1.1io_object-attributen-ExtraRegels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\2. objectcatalogus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13A5648C-3774-4F62-988C-8D6145828D70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E80F4D-92EE-4670-A6E1-A434864CD5E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3165" yWindow="735" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="19" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3165" yWindow="735" windowWidth="17175" windowHeight="7125" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WION" sheetId="27" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Mangat" sheetId="12" r:id="rId16"/>
     <sheet name="Kast" sheetId="13" r:id="rId17"/>
     <sheet name="TechnischGebouw" sheetId="37" r:id="rId18"/>
-    <sheet name="ExtraDetailInfo" sheetId="14" r:id="rId19"/>
+    <sheet name="ExtraDetailinfo" sheetId="14" r:id="rId19"/>
     <sheet name="AanduidingEisvoorzorgsmaatregel" sheetId="35" r:id="rId20"/>
     <sheet name="Bijlage" sheetId="33" r:id="rId21"/>
     <sheet name="EisVoorzorgsmaatregelBijlage" sheetId="34" r:id="rId22"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="299">
   <si>
     <t>Annotatie</t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>BGT_ID</t>
-  </si>
-  <si>
-    <t>ExtraDetailInfo</t>
   </si>
   <si>
     <t>identificatie</t>
@@ -923,9 +920,6 @@
   </si>
   <si>
     <t>Punt, lijn, vlak, of multilijn</t>
-  </si>
-  <si>
-    <t>Bij uitlevering verplicht</t>
   </si>
   <si>
     <t>contactVoorzorgsmaatregel</t>
@@ -1017,6 +1011,15 @@
     <t>Strikte verplichting voor annotatieobjecten van het type annotatieLabel of pijlpunt. Verplichte attributen:
 - aangrijpingHorizontaal
 - aangrijpingVerticaal</t>
+  </si>
+  <si>
+    <t>ExtraDetailinfo</t>
+  </si>
+  <si>
+    <t>Bij uitlevering verplicht; bij aanlevering beheerdersinformatie verplicht; niet toegestaan bij aanlevering netinformatie</t>
+  </si>
+  <si>
+    <t>nilReason is niet toegestaan.</t>
   </si>
 </sst>
 </file>
@@ -2664,12 +2667,17 @@
             </a:rPr>
             <a:t>grijs: optioneel; puur informatief, van minder belang of niet van toepassing (voorbeeld: INSPIRE-attribuut dat niet van toepassing is in KLICWIN) </a:t>
           </a:r>
-          <a:endParaRPr lang="nl-NL">
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nl-NL" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1">
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3009,7 +3017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -3022,10 +3030,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3096,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3105,7 +3116,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,7 +3136,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3145,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3165,27 +3176,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3205,7 +3216,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3225,7 +3236,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3245,7 +3256,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3265,7 +3276,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3285,7 +3296,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3305,7 +3316,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3325,7 +3336,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="50" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3356,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -3365,7 +3376,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -3385,7 +3396,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -3405,7 +3416,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3425,7 +3436,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3456,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3465,7 +3476,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3485,7 +3496,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3505,7 +3516,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3525,7 +3536,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3545,7 +3556,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3565,7 +3576,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3585,7 +3596,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3595,10 +3606,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3658,7 +3672,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3678,7 +3692,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3718,7 +3732,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3738,27 +3752,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3778,7 +3792,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3798,7 +3812,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3818,7 +3832,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3838,7 +3852,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3858,7 +3872,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3878,7 +3892,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3898,7 +3912,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="27" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,7 +3932,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3958,7 +3972,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3978,7 +3992,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3998,7 +4012,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4032,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4038,7 +4052,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4058,7 +4072,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4078,7 +4092,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4098,12 +4112,12 @@
         <v>29</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>133</v>
@@ -4118,7 +4132,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4138,7 +4152,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4158,7 +4172,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4166,7 +4180,7 @@
         <v>134</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>122</v>
@@ -4178,7 +4192,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,7 +4212,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4210,12 +4224,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4290,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4295,7 +4310,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4315,7 +4330,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -4335,7 +4350,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4355,7 +4370,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4375,7 +4390,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4395,27 +4410,27 @@
         <v>35</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>144</v>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4435,7 +4450,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4455,7 +4470,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4475,7 +4490,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -4495,7 +4510,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4515,7 +4530,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4575,7 +4590,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4595,7 +4610,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4635,12 +4650,12 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -4655,15 +4670,15 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>122</v>
@@ -4675,7 +4690,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4695,7 +4710,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4715,7 +4730,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4735,7 +4750,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4755,7 +4770,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4793,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4796,7 +4814,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4824,24 +4842,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>144</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4861,7 +4879,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4881,7 +4899,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4901,7 +4919,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -4921,7 +4939,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4941,7 +4959,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4961,7 +4979,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4981,7 +4999,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5001,7 +5019,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="52" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -5021,7 +5039,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5041,7 +5059,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5061,12 +5079,12 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -5121,7 +5139,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5141,12 +5159,12 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -5161,7 +5179,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="55" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -5181,7 +5199,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5201,7 +5219,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5221,7 +5239,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5241,7 +5259,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5252,11 +5270,14 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5270,7 +5291,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5298,24 +5319,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>144</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5335,7 +5356,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5355,7 +5376,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5375,7 +5396,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5395,7 +5416,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5415,7 +5436,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5435,7 +5456,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5455,7 +5476,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5475,7 +5496,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="52" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -5495,7 +5516,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5515,7 +5536,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5535,7 +5556,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5555,7 +5576,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5575,7 +5596,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5595,12 +5616,12 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -5615,7 +5636,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -5635,7 +5656,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -5655,7 +5676,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5675,7 +5696,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5695,7 +5716,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5719,11 +5740,14 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5737,7 +5761,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5765,24 +5789,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>144</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5802,7 +5826,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5822,7 +5846,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5842,7 +5866,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5862,7 +5886,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5882,7 +5906,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5902,7 +5926,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5922,7 +5946,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5942,7 +5966,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -5962,7 +5986,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5982,7 +6006,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6002,7 +6026,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6022,7 +6046,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6042,7 +6066,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6062,12 +6086,12 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -6082,7 +6106,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -6102,7 +6126,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6122,7 +6146,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6142,7 +6166,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,7 +6186,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6186,11 +6210,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6204,7 +6231,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6232,24 +6259,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>144</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6269,7 +6296,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6289,7 +6316,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6309,7 +6336,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6329,7 +6356,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6349,7 +6376,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6369,7 +6396,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6389,7 +6416,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6409,7 +6436,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6429,7 +6456,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6449,7 +6476,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6469,7 +6496,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6489,7 +6516,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6509,12 +6536,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -6529,7 +6556,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -6549,7 +6576,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -6569,7 +6596,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6589,7 +6616,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6609,7 +6636,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6633,11 +6660,14 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6651,7 +6681,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6679,24 +6709,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>144</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6716,7 +6746,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6736,7 +6766,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6756,7 +6786,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6776,7 +6806,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6796,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6816,7 +6846,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6836,7 +6866,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6856,7 +6886,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6876,7 +6906,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6896,7 +6926,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6916,7 +6946,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6936,7 +6966,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6956,12 +6986,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -6976,7 +7006,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -6996,7 +7026,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7016,7 +7046,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7036,7 +7066,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7056,7 +7086,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7085,10 +7115,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7103,7 +7136,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7131,24 +7164,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>144</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7168,7 +7201,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7188,7 +7221,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7208,7 +7241,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7228,7 +7261,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7248,7 +7281,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7268,7 +7301,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7288,7 +7321,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7308,7 +7341,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7328,7 +7361,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7348,7 +7381,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7368,7 +7401,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7388,7 +7421,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7408,12 +7441,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -7428,7 +7461,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -7448,7 +7481,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7468,7 +7501,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7488,7 +7521,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7508,7 +7541,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7525,12 +7558,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7544,8 +7578,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>136</v>
+      <c r="A1" s="37" t="s">
+        <v>296</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7575,7 +7609,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>88</v>
@@ -7590,7 +7624,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7610,7 +7644,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7630,7 +7664,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7650,7 +7684,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7670,7 +7704,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="71" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7690,7 +7724,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7710,7 +7744,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7749,8 +7783,8 @@
       <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>276</v>
+      <c r="F11" s="95" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7769,8 +7803,8 @@
       <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>276</v>
+      <c r="F12" s="95" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7810,7 +7844,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7841,12 +7875,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7861,7 +7896,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7906,7 +7941,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7926,7 +7961,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7946,7 +7981,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7966,7 +8001,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -7986,27 +8021,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8026,7 +8061,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -8046,7 +8081,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8066,7 +8101,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8086,7 +8121,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8106,7 +8141,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -8126,7 +8161,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8146,7 +8181,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="21" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8166,7 +8201,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="21" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8186,7 +8221,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8206,7 +8241,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8226,7 +8261,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8246,7 +8281,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8266,7 +8301,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8286,7 +8321,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -8306,7 +8341,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="25" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,7 +8361,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8346,7 +8381,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8388,7 +8423,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8418,7 +8453,7 @@
     </row>
     <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>88</v>
@@ -8433,7 +8468,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8453,7 +8488,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8473,7 +8508,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8493,7 +8528,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -8513,7 +8548,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -8533,15 +8568,15 @@
         <v>35</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>122</v>
@@ -8553,12 +8588,12 @@
         <v>29</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>83</v>
@@ -8578,7 +8613,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>83</v>
@@ -8593,12 +8628,12 @@
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>83</v>
@@ -8613,12 +8648,12 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>83</v>
@@ -8633,15 +8668,15 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>122</v>
@@ -8681,7 +8716,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8711,7 +8746,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>88</v>
@@ -8726,7 +8761,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8746,7 +8781,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8766,7 +8801,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8786,7 +8821,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8806,12 +8841,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>83</v>
@@ -8846,7 +8881,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8886,7 +8921,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8924,7 +8959,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8954,7 +8989,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>88</v>
@@ -8969,7 +9004,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8989,7 +9024,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9009,7 +9044,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9029,7 +9064,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9049,15 +9084,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>122</v>
@@ -9077,7 +9112,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>122</v>
@@ -9089,7 +9124,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9097,7 +9132,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>122</v>
@@ -9117,7 +9152,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>122</v>
@@ -9134,7 +9169,7 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>83</v>
@@ -9154,7 +9189,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>83</v>
@@ -9189,7 +9224,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -9219,7 +9254,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -9249,7 +9284,7 @@
     </row>
     <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>88</v>
@@ -9264,7 +9299,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9284,7 +9319,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9304,7 +9339,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="60" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9324,7 +9359,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9344,7 +9379,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -9364,12 +9399,12 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>83</v>
@@ -9404,12 +9439,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="99" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="98" t="s">
         <v>83</v>
@@ -9424,7 +9459,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9444,7 +9479,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -9507,7 +9542,7 @@
     </row>
     <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>88</v>
@@ -9522,7 +9557,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9542,7 +9577,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9562,7 +9597,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9582,7 +9617,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9602,7 +9637,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -9622,7 +9657,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -9662,12 +9697,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="99" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="98" t="s">
         <v>83</v>
@@ -9682,7 +9717,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9702,7 +9737,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -9746,7 +9781,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9791,7 +9826,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9811,12 +9846,12 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -9831,7 +9866,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9851,7 +9886,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,12 +9906,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>83</v>
@@ -9896,7 +9931,7 @@
     </row>
     <row r="9" spans="1:6" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>83</v>
@@ -9931,7 +9966,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9985,7 +10020,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10030,7 +10065,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -10052,14 +10087,14 @@
         <v>29</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>88</v>
@@ -10074,7 +10109,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -10096,7 +10131,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -10118,7 +10153,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -10162,7 +10197,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10182,12 +10217,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>16</v>
@@ -10202,14 +10237,14 @@
         <v>29</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="92" t="s">
         <v>16</v>
@@ -10224,7 +10259,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
@@ -10246,7 +10281,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
@@ -10268,7 +10303,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10288,7 +10323,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -10308,7 +10343,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -10404,7 +10439,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10424,12 +10459,12 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -10444,7 +10479,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10464,7 +10499,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10484,7 +10519,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="21" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10524,7 +10559,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10544,12 +10579,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>16</v>
@@ -10564,12 +10599,12 @@
         <v>29</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>16</v>
@@ -10584,7 +10619,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10604,7 +10639,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -10624,7 +10659,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10659,7 +10694,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -10676,7 +10711,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10716,7 +10751,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10771,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10776,7 +10811,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10796,7 +10831,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="71" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10816,12 +10851,12 @@
         <v>35</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>88</v>
@@ -10836,7 +10871,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10856,7 +10891,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10876,7 +10911,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10896,7 +10931,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10916,12 +10951,12 @@
         <v>29</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>83</v>
@@ -10941,7 +10976,7 @@
     </row>
     <row r="15" spans="1:6" s="49" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>83</v>
@@ -10956,7 +10991,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -10976,7 +11011,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -10996,7 +11031,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -11087,7 +11122,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="71" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11107,7 +11142,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="89" customFormat="1" x14ac:dyDescent="0.25">
@@ -11127,7 +11162,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="71" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11147,7 +11182,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="71" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11167,7 +11202,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11187,7 +11222,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="89" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11207,7 +11242,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="89" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11227,7 +11262,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11247,7 +11282,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11267,7 +11302,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11287,7 +11322,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11307,7 +11342,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11327,7 +11362,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11347,7 +11382,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -11371,12 +11406,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11391,7 +11427,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11436,7 +11472,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11456,7 +11492,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11476,7 +11512,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11496,7 +11532,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -11516,27 +11552,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11556,7 +11592,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11576,7 +11612,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -11596,7 +11632,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11616,7 +11652,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11636,7 +11672,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -11656,7 +11692,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11676,7 +11712,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11696,7 +11732,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11716,7 +11752,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11736,7 +11772,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11756,7 +11792,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11776,7 +11812,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -11796,7 +11832,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11816,7 +11852,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="25" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11836,7 +11872,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11856,7 +11892,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11914,7 +11950,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12167,7 +12203,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12197,7 +12233,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>88</v>
@@ -12212,7 +12248,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12232,7 +12268,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12252,12 +12288,12 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>83</v>
@@ -12272,12 +12308,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>83</v>
@@ -12292,12 +12328,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>83</v>
@@ -12312,12 +12348,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>83</v>
@@ -12326,18 +12362,18 @@
         <v>122</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>83</v>
@@ -12352,12 +12388,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12366,13 +12402,13 @@
         <v>122</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -12398,7 +12434,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12428,7 +12464,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>88</v>
@@ -12443,7 +12479,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12463,7 +12499,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12483,12 +12519,12 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>83</v>
@@ -12503,12 +12539,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>83</v>
@@ -12523,12 +12559,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>83</v>
@@ -12543,12 +12579,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>83</v>
@@ -12563,12 +12599,12 @@
         <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>83</v>
@@ -12583,12 +12619,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12603,12 +12639,12 @@
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>83</v>
@@ -12623,12 +12659,12 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>83</v>
@@ -12643,12 +12679,12 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>83</v>
@@ -12663,12 +12699,12 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>83</v>
@@ -12683,12 +12719,12 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>83</v>
@@ -12703,12 +12739,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>83</v>
@@ -12723,12 +12759,12 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>83</v>
@@ -12743,12 +12779,12 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>83</v>
@@ -12763,12 +12799,12 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>83</v>
@@ -12783,12 +12819,12 @@
         <v>35</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>83</v>
@@ -12803,12 +12839,12 @@
         <v>35</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>83</v>
@@ -12823,7 +12859,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -12853,7 +12889,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F1" s="62"/>
     </row>
@@ -12879,7 +12915,7 @@
     </row>
     <row r="3" spans="1:6" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>88</v>
@@ -12894,7 +12930,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -12914,7 +12950,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -12934,12 +12970,12 @@
         <v>29</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>83</v>
@@ -12954,12 +12990,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="65" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>83</v>
@@ -12974,12 +13010,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="65" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>83</v>
@@ -12994,12 +13030,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="65" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>83</v>
@@ -13014,12 +13050,12 @@
         <v>35</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="65" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>83</v>
@@ -13034,12 +13070,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>83</v>
@@ -13054,12 +13090,12 @@
         <v>35</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>83</v>
@@ -13074,12 +13110,12 @@
         <v>35</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="16" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>83</v>
@@ -13094,12 +13130,12 @@
         <v>35</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>83</v>
@@ -13114,12 +13150,12 @@
         <v>35</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>83</v>
@@ -13134,7 +13170,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -13162,7 +13198,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -13192,7 +13228,7 @@
     </row>
     <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>88</v>
@@ -13207,7 +13243,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -13227,7 +13263,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -13247,7 +13283,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -13255,7 +13291,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>122</v>
@@ -13267,15 +13303,15 @@
         <v>29</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>122</v>
@@ -13287,15 +13323,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>122</v>
@@ -13307,15 +13343,15 @@
         <v>29</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>122</v>
@@ -13327,15 +13363,15 @@
         <v>29</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>122</v>
@@ -13347,15 +13383,15 @@
         <v>29</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>122</v>
@@ -13367,32 +13403,32 @@
         <v>29</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>247</v>
-      </c>
       <c r="E12" s="51" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>83</v>
@@ -13401,18 +13437,18 @@
         <v>122</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>83</v>
@@ -13427,12 +13463,12 @@
         <v>29</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>83</v>
@@ -13447,12 +13483,12 @@
         <v>29</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="51" t="s">
         <v>83</v>
@@ -13467,12 +13503,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>83</v>
@@ -13487,7 +13523,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -13518,10 +13554,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="6"/>
@@ -13550,7 +13586,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>88</v>
@@ -13565,7 +13601,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13585,7 +13621,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13605,7 +13641,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -13613,7 +13649,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>122</v>
@@ -13625,15 +13661,15 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>122</v>
@@ -13645,15 +13681,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>122</v>
@@ -13665,15 +13701,15 @@
         <v>29</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>122</v>
@@ -13685,15 +13721,15 @@
         <v>29</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>122</v>
@@ -13705,15 +13741,15 @@
         <v>29</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>122</v>
@@ -13725,32 +13761,32 @@
         <v>29</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>247</v>
-      </c>
       <c r="E12" s="47" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>83</v>
@@ -13765,7 +13801,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -13792,7 +13828,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -13822,7 +13858,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>88</v>
@@ -13837,7 +13873,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13857,7 +13893,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13877,13 +13913,13 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="75" t="s">
         <v>83</v>
@@ -13898,13 +13934,13 @@
         <v>29</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>83</v>
@@ -13919,13 +13955,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>83</v>
@@ -13940,7 +13976,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13954,12 +13990,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13974,7 +14011,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="6"/>
@@ -14019,7 +14056,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14039,7 +14076,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14059,7 +14096,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -14079,7 +14116,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14099,27 +14136,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14139,7 +14176,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14159,7 +14196,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14179,7 +14216,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -14199,7 +14236,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14219,7 +14256,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14239,7 +14276,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14259,7 +14296,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="27" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14279,7 +14316,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14379,7 +14416,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14399,7 +14436,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14419,7 +14456,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14439,7 +14476,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14459,7 +14496,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14479,7 +14516,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14487,7 +14524,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -14499,7 +14536,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14519,7 +14556,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -14543,12 +14580,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14558,7 +14596,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14603,7 +14641,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14623,7 +14661,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14643,7 +14681,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -14663,7 +14701,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -14683,27 +14721,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14723,7 +14761,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14743,7 +14781,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14763,7 +14801,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14783,7 +14821,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14803,7 +14841,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14823,7 +14861,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14843,7 +14881,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="27" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14863,7 +14901,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14963,7 +15001,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14983,7 +15021,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15003,7 +15041,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15023,7 +15061,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15043,7 +15081,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15063,7 +15101,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15071,7 +15109,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -15083,7 +15121,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15103,7 +15141,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -15127,12 +15165,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15147,7 +15186,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15192,7 +15231,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15212,7 +15251,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15232,7 +15271,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -15252,7 +15291,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -15272,27 +15311,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15312,7 +15351,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15332,7 +15371,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15352,7 +15391,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -15372,7 +15411,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15392,7 +15431,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15412,7 +15451,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15432,7 +15471,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="27" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15452,7 +15491,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15532,7 +15571,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15552,7 +15591,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15572,7 +15611,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15592,7 +15631,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15612,7 +15651,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15632,7 +15671,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15652,7 +15691,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15660,7 +15699,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -15672,7 +15711,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15692,7 +15731,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -15716,12 +15755,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:XFD6"/>
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15736,7 +15776,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15781,7 +15821,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15801,7 +15841,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15821,7 +15861,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -15841,7 +15881,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -15861,27 +15901,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15901,7 +15941,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15921,7 +15961,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15941,7 +15981,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -15961,7 +16001,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15981,7 +16021,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16001,7 +16041,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16021,7 +16061,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="27" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16041,7 +16081,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16141,7 +16181,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16161,7 +16201,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16181,7 +16221,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16201,7 +16241,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16221,7 +16261,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16241,7 +16281,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16249,7 +16289,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -16261,7 +16301,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16281,7 +16321,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -16304,10 +16344,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16322,7 +16365,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -16367,7 +16410,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16387,7 +16430,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16407,7 +16450,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -16427,7 +16470,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -16447,27 +16490,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16487,7 +16530,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16507,7 +16550,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16527,7 +16570,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -16547,7 +16590,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16567,7 +16610,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16587,7 +16630,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16607,7 +16650,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16627,7 +16670,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16647,7 +16690,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16667,7 +16710,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16687,7 +16730,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16707,7 +16750,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16727,7 +16770,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="49" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16735,7 +16778,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>122</v>
@@ -16747,7 +16790,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16755,7 +16798,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>122</v>
@@ -16772,16 +16815,16 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16789,7 +16832,7 @@
         <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>122</v>
@@ -16801,7 +16844,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="25" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16821,7 +16864,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16841,7 +16884,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -16853,12 +16896,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16918,7 +16962,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16938,7 +16982,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16958,7 +17002,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -16978,7 +17022,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -16998,27 +17042,27 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>144</v>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17038,7 +17082,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17058,7 +17102,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17078,7 +17122,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -17098,7 +17142,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17118,7 +17162,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -17138,7 +17182,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17158,7 +17202,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="27" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -17178,7 +17222,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -17198,7 +17242,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -17218,7 +17262,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -17238,7 +17282,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17258,7 +17302,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17278,7 +17322,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17298,7 +17342,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17318,7 +17362,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17338,7 +17382,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17358,7 +17402,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17378,7 +17422,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17398,7 +17442,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17418,7 +17462,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
